--- a/xlsx/氨_intext.xlsx
+++ b/xlsx/氨_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="443">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="441">
   <si>
     <t>氨</t>
   </si>
@@ -29,7 +29,7 @@
     <t>IUPAC命名法</t>
   </si>
   <si>
-    <t>政策_政策_混合動力車輛_氨</t>
+    <t>政策_政策_混合动力车辆_氨</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/CAS%E5%8F%B7</t>
@@ -137,7 +137,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%86%B1%E5%8A%9B%E5%AD%B8%E6%BA%AB%E6%A8%99</t>
   </si>
   <si>
-    <t>熱力學溫標</t>
+    <t>热力学温标</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B2%B8%E7%82%B9</t>
@@ -173,13 +173,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%89%E8%A7%92%E9%8C%90</t>
   </si>
   <si>
-    <t>三角錐</t>
+    <t>三角锥</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%81%B6%E6%A5%B5%E5%AD%90</t>
   </si>
   <si>
-    <t>偶極子</t>
+    <t>偶极子</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E6%8B%9C</t>
@@ -191,13 +191,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%AD%A6%E7%A4%BA%E6%80%A7%E8%B3%AA%E6%A8%99%E6%BA%96%E8%A9%9E%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>警示性質標準詞列表</t>
+    <t>警示性质标准词列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E5%85%A8%E5%BB%BA%E8%AD%B0%E6%A8%99%E6%BA%96%E8%A9%9E%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>安全建議標準詞列表</t>
+    <t>安全建议标准词列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/NFPA_704</t>
@@ -239,7 +239,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%8A%A8</t>
   </si>
   <si>
-    <t>銨</t>
+    <t>铵</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A3%B7%E5%8C%96%E6%B0%A2</t>
@@ -275,7 +275,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%96%8A%E6%B0%AE%E9%85%B8</t>
   </si>
   <si>
-    <t>疊氮酸</t>
+    <t>叠氮酸</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9B%90%E9%85%B8%E7%BE%9F%E8%83%BA</t>
@@ -305,13 +305,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BB%8B%E9%9B%BB%E4%BF%82%E6%95%B8</t>
   </si>
   <si>
-    <t>介電係數</t>
+    <t>介电系数</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9B%B8%E8%AE%8A</t>
   </si>
   <si>
-    <t>相變</t>
+    <t>相变</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%A2%E5%A4%96%E5%85%89%E8%B0%B1</t>
@@ -323,7 +323,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A0%B8%E7%A3%81%E5%85%B1%E6%8C%AF%E9%A0%BB%E8%AD%9C%E5%AD%B8</t>
   </si>
   <si>
-    <t>核磁共振頻譜學</t>
+    <t>核磁共振频谱学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B4%A8%E8%B0%B1</t>
@@ -353,31 +353,31 @@
     <t>https://zh.wikipedia.org/wiki/%E8%97%A5%E7%89%A9</t>
   </si>
   <si>
-    <t>藥物</t>
+    <t>药物</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%85%90%E8%9D%95</t>
   </si>
   <si>
-    <t>腐蝕</t>
+    <t>腐蚀</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E5%99%B8</t>
   </si>
   <si>
-    <t>公噸</t>
+    <t>公吨</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AD%A4%E9%9B%BB%E5%AD%90%E5%B0%8D</t>
   </si>
   <si>
-    <t>孤電子對</t>
+    <t>孤电子对</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B7%AF%E6%98%93%E6%96%AF%E9%B9%BC</t>
   </si>
   <si>
-    <t>路易斯鹼</t>
+    <t>路易斯碱</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E6%96%87</t>
@@ -401,9 +401,6 @@
     <t>https://zh.wikipedia.org/wiki/%E9%93%B5</t>
   </si>
   <si>
-    <t>铵</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%B4%E6%BA%B6%E6%B6%B2</t>
   </si>
   <si>
@@ -413,7 +410,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%B9%BC%E6%80%A7</t>
   </si>
   <si>
-    <t>鹼性</t>
+    <t>碱性</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%99%AE%E5%88%A9%E6%96%AF%E7%89%B9%E9%87%8C</t>
@@ -425,19 +422,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B0%AF%E5%8C%96%E9%8A%A8</t>
   </si>
   <si>
-    <t>氯化銨</t>
+    <t>氯化铵</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%AB%E6%B0%A7%E5%8C%96%E9%88%89</t>
   </si>
   <si>
-    <t>氫氧化鈉</t>
+    <t>氢氧化钠</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%B8%80%E6%AC%A1%E4%B8%96%E7%95%8C%E5%A4%A7%E6%88%B0</t>
   </si>
   <si>
-    <t>第一次世界大戰</t>
+    <t>第一次世界大战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B9%B2%E9%A6%8F</t>
@@ -449,7 +446,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B3%9E%E4%BE%BF</t>
   </si>
   <si>
-    <t>糞便</t>
+    <t>粪便</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%85%A4</t>
@@ -467,7 +464,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B0%AB%E6%B0%A7%E5%8C%96%E9%88%A3</t>
   </si>
   <si>
-    <t>氫氧化鈣</t>
+    <t>氢氧化钙</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%88%E4%BC%AF%E6%B3%95</t>
@@ -479,31 +476,31 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E6%B0%A3%E5%A3%93%E5%8A%9B</t>
   </si>
   <si>
-    <t>大氣壓力</t>
+    <t>大气压力</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%A7%E5%8C%96%E9%90%B5</t>
   </si>
   <si>
-    <t>氧化鐵</t>
+    <t>氧化铁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%82%AC%E5%8C%96%E5%8A%91</t>
   </si>
   <si>
-    <t>催化劑</t>
+    <t>催化剂</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%AE%E6%B0%A3</t>
   </si>
   <si>
-    <t>氮氣</t>
+    <t>氮气</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%AB%E6%B0%A3</t>
   </si>
   <si>
-    <t>氫氣</t>
+    <t>氢气</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B9%B3%E8%A1%A1%E5%B8%B8%E6%95%B0</t>
@@ -521,7 +518,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A9%BA%E6%B0%A3</t>
   </si>
   <si>
-    <t>空氣</t>
+    <t>空气</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%87%83%E6%96%99</t>
@@ -533,31 +530,31 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B0%AB</t>
   </si>
   <si>
-    <t>氫</t>
+    <t>氢</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E8%A7%A3</t>
   </si>
   <si>
-    <t>電解</t>
+    <t>电解</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A2%A8%E5%8A%9B%E7%99%BC%E9%9B%BB</t>
   </si>
   <si>
-    <t>風力發電</t>
+    <t>风力发电</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%AA%E9%99%BD%E8%83%BD%E7%99%BC%E9%9B%BB</t>
   </si>
   <si>
-    <t>太陽能發電</t>
+    <t>太阳能发电</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%B4%E5%8A%9B%E7%99%BC%E9%9B%BB</t>
   </si>
   <si>
-    <t>水力發電</t>
+    <t>水力发电</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A1%9D%E9%85%B8</t>
@@ -587,7 +584,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AD%A4%E5%B0%8D%E9%9B%BB%E5%AD%90</t>
   </si>
   <si>
-    <t>孤對電子</t>
+    <t>孤对电子</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BB%9C%E5%90%88%E7%89%A9</t>
@@ -641,7 +638,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A8%E9%9F%B3%E7%AC%A6%E8%99%9F</t>
   </si>
   <si>
-    <t>注音符號</t>
+    <t>注音符号</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%83%BA</t>
@@ -653,7 +650,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B0%AE%E6%97%8F%E5%85%83%E7%B4%A0%E7%9A%84%E6%B0%AB%E5%8C%96%E7%89%A9</t>
   </si>
   <si>
-    <t>氮族元素的氫化物</t>
+    <t>氮族元素的氢化物</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Template_talk:%E6%97%A0%E6%9C%BA%E6%B0%AE%E5%8C%96%E5%90%88%E7%89%A9</t>
@@ -665,7 +662,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E6%B0%A8</t>
   </si>
   <si>
-    <t>聯氨</t>
+    <t>联氨</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%89%E6%B0%9F%E5%8C%96%E6%B0%AE</t>
@@ -773,9 +770,6 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B0%A2</t>
   </si>
   <si>
-    <t>氢</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%81%8F%E7%A1%BC%E9%85%B8</t>
   </si>
   <si>
@@ -815,7 +809,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E7%A3%B7%E9%85%B8</t>
   </si>
   <si>
-    <t>亞磷酸</t>
+    <t>亚磷酸</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BF%9E%E4%BA%8C%E7%A3%B7%E9%85%B8</t>
@@ -1061,7 +1055,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%81%8E%E9%8C%AB%E9%85%B8</t>
   </si>
   <si>
-    <t>過錫酸</t>
+    <t>过锡酸</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%81%8F%E9%92%9B%E9%85%B8</t>
@@ -1109,7 +1103,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B0%AF%E9%89%91%E9%85%B8</t>
   </si>
   <si>
-    <t>氯鉑酸</t>
+    <t>氯铂酸</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%AF%E9%87%91%E9%85%B8</t>
@@ -1211,7 +1205,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%8C%E7%A1%AB%E5%8C%96%E6%B0%AB</t>
   </si>
   <si>
-    <t>二硫化氫</t>
+    <t>二硫化氢</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A1%92%E5%8C%96%E6%B0%A2</t>
@@ -1325,7 +1319,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E4%BC%9A%E5%9B%BE%E4%B9%A6%E9%A6%86%E6%8E%A7%E5%88%B6%E5%8F%B7</t>
@@ -1343,7 +1337,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
+    <t>国立国会图书馆</t>
   </si>
 </sst>
 </file>
@@ -2413,7 +2407,7 @@
         <v>48</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H25" t="s">
         <v>4</v>
@@ -3341,7 +3335,7 @@
         <v>92</v>
       </c>
       <c r="G57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H57" t="s">
         <v>4</v>
@@ -3947,7 +3941,7 @@
         <v>127</v>
       </c>
       <c r="F78" t="s">
-        <v>128</v>
+        <v>74</v>
       </c>
       <c r="G78" t="n">
         <v>2</v>
@@ -3973,10 +3967,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
+        <v>128</v>
+      </c>
+      <c r="F79" t="s">
         <v>129</v>
-      </c>
-      <c r="F79" t="s">
-        <v>130</v>
       </c>
       <c r="G79" t="n">
         <v>3</v>
@@ -4002,10 +3996,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
+        <v>130</v>
+      </c>
+      <c r="F80" t="s">
         <v>131</v>
-      </c>
-      <c r="F80" t="s">
-        <v>132</v>
       </c>
       <c r="G80" t="n">
         <v>1</v>
@@ -4031,10 +4025,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
+        <v>132</v>
+      </c>
+      <c r="F81" t="s">
         <v>133</v>
-      </c>
-      <c r="F81" t="s">
-        <v>134</v>
       </c>
       <c r="G81" t="n">
         <v>1</v>
@@ -4060,10 +4054,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
+        <v>134</v>
+      </c>
+      <c r="F82" t="s">
         <v>135</v>
-      </c>
-      <c r="F82" t="s">
-        <v>136</v>
       </c>
       <c r="G82" t="n">
         <v>2</v>
@@ -4089,10 +4083,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
+        <v>136</v>
+      </c>
+      <c r="F83" t="s">
         <v>137</v>
-      </c>
-      <c r="F83" t="s">
-        <v>138</v>
       </c>
       <c r="G83" t="n">
         <v>1</v>
@@ -4118,10 +4112,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
+        <v>138</v>
+      </c>
+      <c r="F84" t="s">
         <v>139</v>
-      </c>
-      <c r="F84" t="s">
-        <v>140</v>
       </c>
       <c r="G84" t="n">
         <v>1</v>
@@ -4147,10 +4141,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
+        <v>140</v>
+      </c>
+      <c r="F85" t="s">
         <v>141</v>
-      </c>
-      <c r="F85" t="s">
-        <v>142</v>
       </c>
       <c r="G85" t="n">
         <v>2</v>
@@ -4176,10 +4170,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
+        <v>142</v>
+      </c>
+      <c r="F86" t="s">
         <v>143</v>
-      </c>
-      <c r="F86" t="s">
-        <v>144</v>
       </c>
       <c r="G86" t="n">
         <v>1</v>
@@ -4205,10 +4199,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
+        <v>144</v>
+      </c>
+      <c r="F87" t="s">
         <v>145</v>
-      </c>
-      <c r="F87" t="s">
-        <v>146</v>
       </c>
       <c r="G87" t="n">
         <v>1</v>
@@ -4234,10 +4228,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
+        <v>146</v>
+      </c>
+      <c r="F88" t="s">
         <v>147</v>
-      </c>
-      <c r="F88" t="s">
-        <v>148</v>
       </c>
       <c r="G88" t="n">
         <v>2</v>
@@ -4263,10 +4257,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
+        <v>148</v>
+      </c>
+      <c r="F89" t="s">
         <v>149</v>
-      </c>
-      <c r="F89" t="s">
-        <v>150</v>
       </c>
       <c r="G89" t="n">
         <v>1</v>
@@ -4292,10 +4286,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
+        <v>150</v>
+      </c>
+      <c r="F90" t="s">
         <v>151</v>
-      </c>
-      <c r="F90" t="s">
-        <v>152</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>
@@ -4321,10 +4315,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
+        <v>152</v>
+      </c>
+      <c r="F91" t="s">
         <v>153</v>
-      </c>
-      <c r="F91" t="s">
-        <v>154</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -4350,10 +4344,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
+        <v>154</v>
+      </c>
+      <c r="F92" t="s">
         <v>155</v>
-      </c>
-      <c r="F92" t="s">
-        <v>156</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
@@ -4379,10 +4373,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
+        <v>156</v>
+      </c>
+      <c r="F93" t="s">
         <v>157</v>
-      </c>
-      <c r="F93" t="s">
-        <v>158</v>
       </c>
       <c r="G93" t="n">
         <v>1</v>
@@ -4408,10 +4402,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
+        <v>158</v>
+      </c>
+      <c r="F94" t="s">
         <v>159</v>
-      </c>
-      <c r="F94" t="s">
-        <v>160</v>
       </c>
       <c r="G94" t="n">
         <v>1</v>
@@ -4437,10 +4431,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
+        <v>160</v>
+      </c>
+      <c r="F95" t="s">
         <v>161</v>
-      </c>
-      <c r="F95" t="s">
-        <v>162</v>
       </c>
       <c r="G95" t="n">
         <v>2</v>
@@ -4466,10 +4460,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
+        <v>162</v>
+      </c>
+      <c r="F96" t="s">
         <v>163</v>
-      </c>
-      <c r="F96" t="s">
-        <v>164</v>
       </c>
       <c r="G96" t="n">
         <v>1</v>
@@ -4495,10 +4489,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
+        <v>164</v>
+      </c>
+      <c r="F97" t="s">
         <v>165</v>
-      </c>
-      <c r="F97" t="s">
-        <v>166</v>
       </c>
       <c r="G97" t="n">
         <v>16</v>
@@ -4524,10 +4518,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
+        <v>166</v>
+      </c>
+      <c r="F98" t="s">
         <v>167</v>
-      </c>
-      <c r="F98" t="s">
-        <v>168</v>
       </c>
       <c r="G98" t="n">
         <v>3</v>
@@ -4553,10 +4547,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
+        <v>168</v>
+      </c>
+      <c r="F99" t="s">
         <v>169</v>
-      </c>
-      <c r="F99" t="s">
-        <v>170</v>
       </c>
       <c r="G99" t="n">
         <v>4</v>
@@ -4582,10 +4576,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
+        <v>170</v>
+      </c>
+      <c r="F100" t="s">
         <v>171</v>
-      </c>
-      <c r="F100" t="s">
-        <v>172</v>
       </c>
       <c r="G100" t="n">
         <v>9</v>
@@ -4611,10 +4605,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
+        <v>172</v>
+      </c>
+      <c r="F101" t="s">
         <v>173</v>
-      </c>
-      <c r="F101" t="s">
-        <v>174</v>
       </c>
       <c r="G101" t="n">
         <v>3</v>
@@ -4640,10 +4634,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
+        <v>174</v>
+      </c>
+      <c r="F102" t="s">
         <v>175</v>
-      </c>
-      <c r="F102" t="s">
-        <v>176</v>
       </c>
       <c r="G102" t="n">
         <v>1</v>
@@ -4669,10 +4663,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
+        <v>176</v>
+      </c>
+      <c r="F103" t="s">
         <v>177</v>
-      </c>
-      <c r="F103" t="s">
-        <v>178</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
@@ -4698,10 +4692,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
+        <v>178</v>
+      </c>
+      <c r="F104" t="s">
         <v>179</v>
-      </c>
-      <c r="F104" t="s">
-        <v>180</v>
       </c>
       <c r="G104" t="n">
         <v>1</v>
@@ -4727,10 +4721,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
+        <v>180</v>
+      </c>
+      <c r="F105" t="s">
         <v>181</v>
-      </c>
-      <c r="F105" t="s">
-        <v>182</v>
       </c>
       <c r="G105" t="n">
         <v>4</v>
@@ -4756,10 +4750,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
+        <v>182</v>
+      </c>
+      <c r="F106" t="s">
         <v>183</v>
-      </c>
-      <c r="F106" t="s">
-        <v>184</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
@@ -4785,10 +4779,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
+        <v>184</v>
+      </c>
+      <c r="F107" t="s">
         <v>185</v>
-      </c>
-      <c r="F107" t="s">
-        <v>186</v>
       </c>
       <c r="G107" t="n">
         <v>1</v>
@@ -4814,10 +4808,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
+        <v>186</v>
+      </c>
+      <c r="F108" t="s">
         <v>187</v>
-      </c>
-      <c r="F108" t="s">
-        <v>188</v>
       </c>
       <c r="G108" t="n">
         <v>3</v>
@@ -4843,10 +4837,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
+        <v>188</v>
+      </c>
+      <c r="F109" t="s">
         <v>189</v>
-      </c>
-      <c r="F109" t="s">
-        <v>190</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
@@ -4901,10 +4895,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
+        <v>190</v>
+      </c>
+      <c r="F111" t="s">
         <v>191</v>
-      </c>
-      <c r="F111" t="s">
-        <v>192</v>
       </c>
       <c r="G111" t="n">
         <v>1</v>
@@ -4930,13 +4924,13 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
+        <v>192</v>
+      </c>
+      <c r="F112" t="s">
         <v>193</v>
       </c>
-      <c r="F112" t="s">
-        <v>194</v>
-      </c>
       <c r="G112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H112" t="s">
         <v>4</v>
@@ -4959,10 +4953,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
+        <v>194</v>
+      </c>
+      <c r="F113" t="s">
         <v>195</v>
-      </c>
-      <c r="F113" t="s">
-        <v>196</v>
       </c>
       <c r="G113" t="n">
         <v>1</v>
@@ -4988,10 +4982,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
+        <v>196</v>
+      </c>
+      <c r="F114" t="s">
         <v>197</v>
-      </c>
-      <c r="F114" t="s">
-        <v>198</v>
       </c>
       <c r="G114" t="n">
         <v>1</v>
@@ -5017,10 +5011,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
+        <v>198</v>
+      </c>
+      <c r="F115" t="s">
         <v>199</v>
-      </c>
-      <c r="F115" t="s">
-        <v>200</v>
       </c>
       <c r="G115" t="n">
         <v>1</v>
@@ -5046,10 +5040,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
+        <v>200</v>
+      </c>
+      <c r="F116" t="s">
         <v>201</v>
-      </c>
-      <c r="F116" t="s">
-        <v>202</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
@@ -5075,10 +5069,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
+        <v>202</v>
+      </c>
+      <c r="F117" t="s">
         <v>203</v>
-      </c>
-      <c r="F117" t="s">
-        <v>204</v>
       </c>
       <c r="G117" t="n">
         <v>1</v>
@@ -5104,10 +5098,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
+        <v>204</v>
+      </c>
+      <c r="F118" t="s">
         <v>205</v>
-      </c>
-      <c r="F118" t="s">
-        <v>206</v>
       </c>
       <c r="G118" t="n">
         <v>2</v>
@@ -5133,10 +5127,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
+        <v>206</v>
+      </c>
+      <c r="F119" t="s">
         <v>207</v>
-      </c>
-      <c r="F119" t="s">
-        <v>208</v>
       </c>
       <c r="G119" t="n">
         <v>1</v>
@@ -5162,10 +5156,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
+        <v>208</v>
+      </c>
+      <c r="F120" t="s">
         <v>209</v>
-      </c>
-      <c r="F120" t="s">
-        <v>210</v>
       </c>
       <c r="G120" t="n">
         <v>5</v>
@@ -5191,10 +5185,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
+        <v>210</v>
+      </c>
+      <c r="F121" t="s">
         <v>211</v>
-      </c>
-      <c r="F121" t="s">
-        <v>212</v>
       </c>
       <c r="G121" t="n">
         <v>1</v>
@@ -5220,10 +5214,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
+        <v>212</v>
+      </c>
+      <c r="F122" t="s">
         <v>213</v>
-      </c>
-      <c r="F122" t="s">
-        <v>214</v>
       </c>
       <c r="G122" t="n">
         <v>5</v>
@@ -5249,13 +5243,13 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
+        <v>214</v>
+      </c>
+      <c r="F123" t="s">
         <v>215</v>
       </c>
-      <c r="F123" t="s">
-        <v>216</v>
-      </c>
       <c r="G123" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H123" t="s">
         <v>4</v>
@@ -5278,13 +5272,13 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
+        <v>216</v>
+      </c>
+      <c r="F124" t="s">
         <v>217</v>
       </c>
-      <c r="F124" t="s">
-        <v>218</v>
-      </c>
       <c r="G124" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H124" t="s">
         <v>4</v>
@@ -5307,13 +5301,13 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
+        <v>218</v>
+      </c>
+      <c r="F125" t="s">
         <v>219</v>
       </c>
-      <c r="F125" t="s">
-        <v>220</v>
-      </c>
       <c r="G125" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H125" t="s">
         <v>4</v>
@@ -5336,10 +5330,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
+        <v>220</v>
+      </c>
+      <c r="F126" t="s">
         <v>221</v>
-      </c>
-      <c r="F126" t="s">
-        <v>222</v>
       </c>
       <c r="G126" t="n">
         <v>1</v>
@@ -5365,13 +5359,13 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
+        <v>222</v>
+      </c>
+      <c r="F127" t="s">
         <v>223</v>
       </c>
-      <c r="F127" t="s">
-        <v>224</v>
-      </c>
       <c r="G127" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H127" t="s">
         <v>4</v>
@@ -5394,10 +5388,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
+        <v>194</v>
+      </c>
+      <c r="F128" t="s">
         <v>195</v>
-      </c>
-      <c r="F128" t="s">
-        <v>196</v>
       </c>
       <c r="G128" t="n">
         <v>18</v>
@@ -5423,13 +5417,13 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
+        <v>224</v>
+      </c>
+      <c r="F129" t="s">
         <v>225</v>
       </c>
-      <c r="F129" t="s">
-        <v>226</v>
-      </c>
       <c r="G129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H129" t="s">
         <v>4</v>
@@ -5452,13 +5446,13 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
+        <v>226</v>
+      </c>
+      <c r="F130" t="s">
         <v>227</v>
       </c>
-      <c r="F130" t="s">
-        <v>228</v>
-      </c>
       <c r="G130" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H130" t="s">
         <v>4</v>
@@ -5481,13 +5475,13 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
+        <v>228</v>
+      </c>
+      <c r="F131" t="s">
         <v>229</v>
       </c>
-      <c r="F131" t="s">
-        <v>230</v>
-      </c>
       <c r="G131" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H131" t="s">
         <v>4</v>
@@ -5510,13 +5504,13 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
+        <v>230</v>
+      </c>
+      <c r="F132" t="s">
         <v>231</v>
       </c>
-      <c r="F132" t="s">
-        <v>232</v>
-      </c>
       <c r="G132" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H132" t="s">
         <v>4</v>
@@ -5539,13 +5533,13 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
+        <v>232</v>
+      </c>
+      <c r="F133" t="s">
         <v>233</v>
       </c>
-      <c r="F133" t="s">
-        <v>234</v>
-      </c>
       <c r="G133" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H133" t="s">
         <v>4</v>
@@ -5568,10 +5562,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
+        <v>234</v>
+      </c>
+      <c r="F134" t="s">
         <v>235</v>
-      </c>
-      <c r="F134" t="s">
-        <v>236</v>
       </c>
       <c r="G134" t="n">
         <v>8</v>
@@ -5597,13 +5591,13 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
+        <v>236</v>
+      </c>
+      <c r="F135" t="s">
         <v>237</v>
       </c>
-      <c r="F135" t="s">
-        <v>238</v>
-      </c>
       <c r="G135" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H135" t="s">
         <v>4</v>
@@ -5626,13 +5620,13 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
+        <v>238</v>
+      </c>
+      <c r="F136" t="s">
         <v>239</v>
       </c>
-      <c r="F136" t="s">
-        <v>240</v>
-      </c>
       <c r="G136" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H136" t="s">
         <v>4</v>
@@ -5655,10 +5649,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
+        <v>240</v>
+      </c>
+      <c r="F137" t="s">
         <v>241</v>
-      </c>
-      <c r="F137" t="s">
-        <v>242</v>
       </c>
       <c r="G137" t="n">
         <v>2</v>
@@ -5684,13 +5678,13 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
+        <v>180</v>
+      </c>
+      <c r="F138" t="s">
         <v>181</v>
       </c>
-      <c r="F138" t="s">
-        <v>182</v>
-      </c>
       <c r="G138" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H138" t="s">
         <v>4</v>
@@ -5713,13 +5707,13 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
+        <v>242</v>
+      </c>
+      <c r="F139" t="s">
         <v>243</v>
       </c>
-      <c r="F139" t="s">
-        <v>244</v>
-      </c>
       <c r="G139" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H139" t="s">
         <v>4</v>
@@ -5742,13 +5736,13 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
+        <v>244</v>
+      </c>
+      <c r="F140" t="s">
         <v>245</v>
       </c>
-      <c r="F140" t="s">
-        <v>246</v>
-      </c>
       <c r="G140" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H140" t="s">
         <v>4</v>
@@ -5777,7 +5771,7 @@
         <v>86</v>
       </c>
       <c r="G141" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H141" t="s">
         <v>4</v>
@@ -5800,13 +5794,13 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
+        <v>246</v>
+      </c>
+      <c r="F142" t="s">
         <v>247</v>
       </c>
-      <c r="F142" t="s">
-        <v>248</v>
-      </c>
       <c r="G142" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H142" t="s">
         <v>4</v>
@@ -5832,10 +5826,10 @@
         <v>127</v>
       </c>
       <c r="F143" t="s">
-        <v>128</v>
+        <v>74</v>
       </c>
       <c r="G143" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H143" t="s">
         <v>4</v>
@@ -5858,13 +5852,13 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
+        <v>248</v>
+      </c>
+      <c r="F144" t="s">
         <v>249</v>
       </c>
-      <c r="F144" t="s">
-        <v>250</v>
-      </c>
       <c r="G144" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H144" t="s">
         <v>4</v>
@@ -5887,10 +5881,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F145" t="s">
-        <v>252</v>
+        <v>171</v>
       </c>
       <c r="G145" t="n">
         <v>15</v>
@@ -5916,13 +5910,13 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="F146" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G146" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H146" t="s">
         <v>4</v>
@@ -5945,13 +5939,13 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F147" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="G147" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H147" t="s">
         <v>4</v>
@@ -5974,13 +5968,13 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F148" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="G148" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H148" t="s">
         <v>4</v>
@@ -6003,13 +5997,13 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F149" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="G149" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H149" t="s">
         <v>4</v>
@@ -6032,13 +6026,13 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F150" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G150" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H150" t="s">
         <v>4</v>
@@ -6061,13 +6055,13 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F151" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="G151" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H151" t="s">
         <v>4</v>
@@ -6090,13 +6084,13 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="F152" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="G152" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H152" t="s">
         <v>4</v>
@@ -6119,13 +6113,13 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F153" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G153" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H153" t="s">
         <v>4</v>
@@ -6148,13 +6142,13 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="F154" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="G154" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H154" t="s">
         <v>4</v>
@@ -6177,13 +6171,13 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F155" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="G155" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H155" t="s">
         <v>4</v>
@@ -6206,13 +6200,13 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="F156" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="G156" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H156" t="s">
         <v>4</v>
@@ -6235,13 +6229,13 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="F157" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="G157" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H157" t="s">
         <v>4</v>
@@ -6264,13 +6258,13 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="F158" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="G158" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H158" t="s">
         <v>4</v>
@@ -6293,13 +6287,13 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F159" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="G159" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H159" t="s">
         <v>4</v>
@@ -6322,13 +6316,13 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="F160" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="G160" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H160" t="s">
         <v>4</v>
@@ -6351,13 +6345,13 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="F161" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="G161" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H161" t="s">
         <v>4</v>
@@ -6380,13 +6374,13 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="F162" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="G162" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H162" t="s">
         <v>4</v>
@@ -6409,13 +6403,13 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="F163" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="G163" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H163" t="s">
         <v>4</v>
@@ -6438,13 +6432,13 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F164" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="G164" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H164" t="s">
         <v>4</v>
@@ -6467,13 +6461,13 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="F165" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="G165" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H165" t="s">
         <v>4</v>
@@ -6496,13 +6490,13 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="F166" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="G166" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H166" t="s">
         <v>4</v>
@@ -6525,13 +6519,13 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="F167" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="G167" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H167" t="s">
         <v>4</v>
@@ -6554,13 +6548,13 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="F168" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G168" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H168" t="s">
         <v>4</v>
@@ -6583,13 +6577,13 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="F169" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="G169" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H169" t="s">
         <v>4</v>
@@ -6612,13 +6606,13 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="F170" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="G170" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H170" t="s">
         <v>4</v>
@@ -6641,13 +6635,13 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="F171" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="G171" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H171" t="s">
         <v>4</v>
@@ -6670,10 +6664,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F172" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="G172" t="n">
         <v>1</v>
@@ -6699,10 +6693,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="F173" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="G173" t="n">
         <v>4</v>
@@ -6728,13 +6722,13 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="F174" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="G174" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H174" t="s">
         <v>4</v>
@@ -6757,13 +6751,13 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="F175" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="G175" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H175" t="s">
         <v>4</v>
@@ -6786,13 +6780,13 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="F176" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="G176" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H176" t="s">
         <v>4</v>
@@ -6815,10 +6809,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="F177" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="G177" t="n">
         <v>5</v>
@@ -6844,13 +6838,13 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="F178" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="G178" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H178" t="s">
         <v>4</v>
@@ -6873,13 +6867,13 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="F179" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="G179" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H179" t="s">
         <v>4</v>
@@ -6902,13 +6896,13 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="F180" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="G180" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H180" t="s">
         <v>4</v>
@@ -6931,10 +6925,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="F181" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="G181" t="n">
         <v>4</v>
@@ -6960,13 +6954,13 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="F182" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G182" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H182" t="s">
         <v>4</v>
@@ -6989,13 +6983,13 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="F183" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="G183" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H183" t="s">
         <v>4</v>
@@ -7018,13 +7012,13 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F184" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="G184" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H184" t="s">
         <v>4</v>
@@ -7047,13 +7041,13 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="F185" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="G185" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H185" t="s">
         <v>4</v>
@@ -7076,13 +7070,13 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="F186" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="G186" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H186" t="s">
         <v>4</v>
@@ -7105,13 +7099,13 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="F187" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="G187" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H187" t="s">
         <v>4</v>
@@ -7134,13 +7128,13 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="F188" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="G188" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H188" t="s">
         <v>4</v>
@@ -7163,13 +7157,13 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="F189" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="G189" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H189" t="s">
         <v>4</v>
@@ -7192,13 +7186,13 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="F190" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="G190" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H190" t="s">
         <v>4</v>
@@ -7221,13 +7215,13 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="F191" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="G191" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H191" t="s">
         <v>4</v>
@@ -7250,13 +7244,13 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="F192" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="G192" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H192" t="s">
         <v>4</v>
@@ -7279,13 +7273,13 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="F193" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="G193" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H193" t="s">
         <v>4</v>
@@ -7308,13 +7302,13 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="F194" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="G194" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H194" t="s">
         <v>4</v>
@@ -7337,13 +7331,13 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="F195" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="G195" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H195" t="s">
         <v>4</v>
@@ -7366,13 +7360,13 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="F196" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="G196" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H196" t="s">
         <v>4</v>
@@ -7395,13 +7389,13 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="F197" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="G197" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H197" t="s">
         <v>4</v>
@@ -7424,13 +7418,13 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="F198" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="G198" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H198" t="s">
         <v>4</v>
@@ -7453,13 +7447,13 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="F199" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="G199" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H199" t="s">
         <v>4</v>
@@ -7482,13 +7476,13 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="F200" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="G200" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H200" t="s">
         <v>4</v>
@@ -7511,13 +7505,13 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="F201" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="G201" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H201" t="s">
         <v>4</v>
@@ -7540,13 +7534,13 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="F202" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="G202" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H202" t="s">
         <v>4</v>
@@ -7569,13 +7563,13 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="F203" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="G203" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H203" t="s">
         <v>4</v>
@@ -7598,13 +7592,13 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="F204" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G204" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H204" t="s">
         <v>4</v>
@@ -7627,13 +7621,13 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="F205" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="G205" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H205" t="s">
         <v>4</v>
@@ -7656,13 +7650,13 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="F206" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="G206" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H206" t="s">
         <v>4</v>
@@ -7685,13 +7679,13 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="F207" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="G207" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H207" t="s">
         <v>4</v>
@@ -7714,13 +7708,13 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="F208" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="G208" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H208" t="s">
         <v>4</v>
@@ -7743,13 +7737,13 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="F209" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="G209" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H209" t="s">
         <v>4</v>
@@ -7772,13 +7766,13 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="F210" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="G210" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H210" t="s">
         <v>4</v>
@@ -7801,10 +7795,10 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="F211" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="G211" t="n">
         <v>2</v>
@@ -7836,7 +7830,7 @@
         <v>76</v>
       </c>
       <c r="G212" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H212" t="s">
         <v>4</v>
@@ -7859,13 +7853,13 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="F213" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="G213" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H213" t="s">
         <v>4</v>
@@ -7894,7 +7888,7 @@
         <v>78</v>
       </c>
       <c r="G214" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H214" t="s">
         <v>4</v>
@@ -7923,7 +7917,7 @@
         <v>80</v>
       </c>
       <c r="G215" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H215" t="s">
         <v>4</v>
@@ -7952,7 +7946,7 @@
         <v>82</v>
       </c>
       <c r="G216" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H216" t="s">
         <v>4</v>
@@ -7975,10 +7969,10 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="F217" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="G217" t="n">
         <v>1</v>
@@ -8004,13 +7998,13 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="F218" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="G218" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H218" t="s">
         <v>4</v>
@@ -8033,13 +8027,13 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
+        <v>200</v>
+      </c>
+      <c r="F219" t="s">
         <v>201</v>
       </c>
-      <c r="F219" t="s">
-        <v>202</v>
-      </c>
       <c r="G219" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H219" t="s">
         <v>4</v>
@@ -8062,13 +8056,13 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="F220" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="G220" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H220" t="s">
         <v>4</v>
@@ -8091,13 +8085,13 @@
         <v>220</v>
       </c>
       <c r="E221" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="F221" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="G221" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H221" t="s">
         <v>4</v>
@@ -8120,13 +8114,13 @@
         <v>221</v>
       </c>
       <c r="E222" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="F222" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="G222" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H222" t="s">
         <v>4</v>
@@ -8149,13 +8143,13 @@
         <v>222</v>
       </c>
       <c r="E223" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="F223" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="G223" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H223" t="s">
         <v>4</v>
@@ -8178,13 +8172,13 @@
         <v>223</v>
       </c>
       <c r="E224" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="F224" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="G224" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H224" t="s">
         <v>4</v>
@@ -8207,13 +8201,13 @@
         <v>224</v>
       </c>
       <c r="E225" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="F225" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="G225" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H225" t="s">
         <v>4</v>
@@ -8236,13 +8230,13 @@
         <v>225</v>
       </c>
       <c r="E226" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="F226" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="G226" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H226" t="s">
         <v>4</v>
@@ -8265,10 +8259,10 @@
         <v>226</v>
       </c>
       <c r="E227" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="F227" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="G227" t="n">
         <v>2</v>
@@ -8294,10 +8288,10 @@
         <v>227</v>
       </c>
       <c r="E228" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="F228" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="G228" t="n">
         <v>1</v>
@@ -8323,10 +8317,10 @@
         <v>228</v>
       </c>
       <c r="E229" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="F229" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="G229" t="n">
         <v>3</v>
@@ -8352,10 +8346,10 @@
         <v>229</v>
       </c>
       <c r="E230" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F230" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="G230" t="n">
         <v>6</v>
@@ -8381,10 +8375,10 @@
         <v>230</v>
       </c>
       <c r="E231" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="F231" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="G231" t="n">
         <v>6</v>
@@ -8410,10 +8404,10 @@
         <v>231</v>
       </c>
       <c r="E232" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="F232" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="G232" t="n">
         <v>5</v>
@@ -8439,10 +8433,10 @@
         <v>232</v>
       </c>
       <c r="E233" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="F233" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="G233" t="n">
         <v>1</v>
@@ -8468,10 +8462,10 @@
         <v>233</v>
       </c>
       <c r="E234" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="F234" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="G234" t="n">
         <v>2</v>
@@ -8497,10 +8491,10 @@
         <v>234</v>
       </c>
       <c r="E235" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="F235" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="G235" t="n">
         <v>2</v>
@@ -8526,10 +8520,10 @@
         <v>235</v>
       </c>
       <c r="E236" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="F236" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="G236" t="n">
         <v>1</v>
@@ -8555,10 +8549,10 @@
         <v>236</v>
       </c>
       <c r="E237" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="F237" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="G237" t="n">
         <v>1</v>
@@ -8584,10 +8578,10 @@
         <v>237</v>
       </c>
       <c r="E238" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="F238" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="G238" t="n">
         <v>1</v>
@@ -8613,10 +8607,10 @@
         <v>238</v>
       </c>
       <c r="E239" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="F239" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="G239" t="n">
         <v>1</v>
@@ -8642,10 +8636,10 @@
         <v>239</v>
       </c>
       <c r="E240" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="F240" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="G240" t="n">
         <v>1</v>
@@ -8671,10 +8665,10 @@
         <v>240</v>
       </c>
       <c r="E241" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="F241" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="G241" t="n">
         <v>1</v>
@@ -8700,10 +8694,10 @@
         <v>241</v>
       </c>
       <c r="E242" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="F242" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="G242" t="n">
         <v>3</v>
@@ -8729,10 +8723,10 @@
         <v>242</v>
       </c>
       <c r="E243" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="F243" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="G243" t="n">
         <v>1</v>
@@ -8758,10 +8752,10 @@
         <v>243</v>
       </c>
       <c r="E244" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="F244" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="G244" t="n">
         <v>1</v>
@@ -8787,10 +8781,10 @@
         <v>244</v>
       </c>
       <c r="E245" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="F245" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="G245" t="n">
         <v>1</v>
